--- a/fbi_ebts/xml/Data Management Service/NistToEBTS.xlsx
+++ b/fbi_ebts/xml/Data Management Service/NistToEBTS.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10513"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jim/git/jdougla3/MyRepo/fbi_ebts/xml/Data Management Service/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5BC19A3A-B36B-0A4D-9DCE-54FBD7E3A3A2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="1900" windowWidth="29480" windowHeight="16100" tabRatio="500"/>
+    <workbookView xWindow="30020" yWindow="1540" windowWidth="33880" windowHeight="16100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -504,7 +510,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -545,7 +551,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -555,6 +561,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,7 +789,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -884,6 +896,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="119">
@@ -1009,6 +1036,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1333,15 +1368,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G82" sqref="G82"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="45" customWidth="1"/>
     <col min="2" max="2" width="60.6640625" style="3" customWidth="1"/>
@@ -1353,7 +1388,7 @@
     <col min="8" max="8" width="161.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="18">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1379,7 +1414,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
         <v>2</v>
       </c>
@@ -1391,7 +1426,7 @@
       <c r="G2" s="19"/>
       <c r="H2" s="18"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>67</v>
@@ -1415,7 +1450,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>50</v>
       </c>
@@ -1426,7 +1461,7 @@
       <c r="G4" s="19"/>
       <c r="M4" s="15"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="3" t="s">
         <v>73</v>
@@ -1450,7 +1485,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>75</v>
       </c>
@@ -1473,7 +1508,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>76</v>
       </c>
@@ -1496,11 +1531,11 @@
         <v>98</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="39" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -1519,7 +1554,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>80</v>
       </c>
@@ -1542,11 +1577,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="39" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="3" t="s">
@@ -1565,7 +1600,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>51</v>
       </c>
@@ -1585,7 +1620,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>51</v>
       </c>
@@ -1595,16 +1630,16 @@
       <c r="F13" s="9"/>
       <c r="G13" s="19"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="40" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>52</v>
       </c>
@@ -1614,7 +1649,7 @@
       <c r="F15" s="9"/>
       <c r="G15" s="19"/>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="C16" s="23" t="s">
         <v>14</v>
@@ -1623,7 +1658,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="C17" s="25" t="s">
         <v>15</v>
@@ -1632,7 +1667,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="C18" s="27" t="s">
         <v>16</v>
@@ -1641,7 +1676,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>53</v>
       </c>
@@ -1651,7 +1686,7 @@
       <c r="F19" s="9"/>
       <c r="G19" s="19"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>91</v>
       </c>
@@ -1674,7 +1709,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>92</v>
       </c>
@@ -1697,14 +1732,14 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C22" s="14"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="19"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
         <v>93</v>
       </c>
@@ -1727,7 +1762,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
         <v>93</v>
       </c>
@@ -1742,11 +1777,11 @@
         <v>105</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="39" t="s">
         <v>20</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -1765,7 +1800,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
         <v>95</v>
       </c>
@@ -1788,7 +1823,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>54</v>
       </c>
@@ -1801,7 +1836,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B28" s="36" t="s">
         <v>131</v>
       </c>
@@ -1824,7 +1859,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" s="36" t="s">
         <v>132</v>
       </c>
@@ -1836,13 +1871,13 @@
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B30" s="36" t="s">
         <v>127</v>
       </c>
       <c r="C30" s="14"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B31" s="37" t="s">
         <v>130</v>
       </c>
@@ -1854,7 +1889,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="32" customFormat="1">
+    <row r="32" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="37" t="s">
         <v>133</v>
       </c>
@@ -1869,7 +1904,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B33" s="34"/>
       <c r="C33" s="14"/>
       <c r="D33" s="9"/>
@@ -1877,7 +1912,7 @@
       <c r="F33" s="9"/>
       <c r="G33" s="19"/>
     </row>
-    <row r="34" spans="1:8" s="32" customFormat="1">
+    <row r="34" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="35"/>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
@@ -1885,7 +1920,7 @@
       <c r="F34" s="14"/>
       <c r="G34" s="33"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
         <v>55</v>
       </c>
@@ -1896,11 +1931,11 @@
       <c r="F35" s="9"/>
       <c r="G35" s="19"/>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B36" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="39" t="s">
         <v>23</v>
       </c>
       <c r="D36" s="3" t="s">
@@ -1919,7 +1954,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>24</v>
       </c>
@@ -1930,7 +1965,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="19"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C38" s="3" t="s">
         <v>25</v>
       </c>
@@ -1950,7 +1985,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B39" s="3" t="s">
         <v>70</v>
       </c>
@@ -1973,7 +2008,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>48</v>
       </c>
@@ -1983,7 +2018,7 @@
       <c r="F40" s="9"/>
       <c r="G40" s="19"/>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
         <v>49</v>
       </c>
@@ -1993,7 +2028,7 @@
       <c r="F41" s="9"/>
       <c r="G41" s="19"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>56</v>
       </c>
@@ -2003,7 +2038,7 @@
       <c r="F42" s="9"/>
       <c r="G42" s="19"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C43" s="23" t="s">
         <v>27</v>
       </c>
@@ -2011,15 +2046,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
-      <c r="C44" s="27" t="s">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C44" s="41" t="s">
         <v>29</v>
       </c>
       <c r="D44" s="28" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>47</v>
       </c>
@@ -2030,7 +2065,7 @@
       <c r="F45" s="9"/>
       <c r="G45" s="19"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="12"/>
       <c r="B46" s="16"/>
       <c r="C46" s="23" t="s">
@@ -2040,17 +2075,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="12"/>
       <c r="B47" s="16"/>
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="42" t="s">
         <v>31</v>
       </c>
       <c r="D47" s="26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="12"/>
       <c r="B48" s="16"/>
       <c r="C48" s="25" t="s">
@@ -2060,7 +2095,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="12"/>
       <c r="B49" s="16"/>
       <c r="C49" s="25" t="s">
@@ -2070,17 +2105,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="12"/>
       <c r="B50" s="16"/>
-      <c r="C50" s="25" t="s">
+      <c r="C50" s="42" t="s">
         <v>34</v>
       </c>
       <c r="D50" s="26" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="12"/>
       <c r="B51" s="16"/>
       <c r="C51" s="25" t="s">
@@ -2090,7 +2125,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="12"/>
       <c r="B52" s="16"/>
       <c r="C52" s="25" t="s">
@@ -2100,7 +2135,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="12"/>
       <c r="B53" s="16"/>
       <c r="C53" s="25" t="s">
@@ -2110,7 +2145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="12"/>
       <c r="B54" s="16"/>
       <c r="C54" s="25" t="s">
@@ -2118,7 +2153,7 @@
       </c>
       <c r="D54" s="30"/>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C55" s="25" t="s">
         <v>39</v>
       </c>
@@ -2126,7 +2161,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C56" s="27" t="s">
         <v>40</v>
       </c>
@@ -2134,7 +2169,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
         <v>57</v>
       </c>
@@ -2145,15 +2180,15 @@
       <c r="F57" s="9"/>
       <c r="G57" s="19"/>
     </row>
-    <row r="58" spans="1:8">
-      <c r="C58" s="23" t="s">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C58" s="43" t="s">
         <v>41</v>
       </c>
       <c r="D58" s="29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C59" s="27" t="s">
         <v>42</v>
       </c>
@@ -2161,7 +2196,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>58</v>
       </c>
@@ -2171,7 +2206,7 @@
       <c r="F60" s="9"/>
       <c r="G60" s="19"/>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C61" s="3" t="s">
         <v>43</v>
       </c>
@@ -2182,7 +2217,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C62" s="3" t="s">
         <v>44</v>
       </c>
@@ -2193,7 +2228,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C63" s="21" t="s">
         <v>45</v>
       </c>
@@ -2204,7 +2239,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="30">
+    <row r="64" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="C64" s="10" t="s">
         <v>46</v>
       </c>
@@ -2216,7 +2251,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>59</v>
       </c>
@@ -2227,15 +2262,15 @@
       <c r="F65" s="9"/>
       <c r="G65" s="19"/>
     </row>
-    <row r="66" spans="1:8">
-      <c r="C66" s="21" t="s">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C66" s="40" t="s">
         <v>62</v>
       </c>
       <c r="D66" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B67" s="38"/>
       <c r="C67" s="3" t="s">
         <v>150</v>
@@ -2256,7 +2291,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>60</v>
       </c>
@@ -2270,7 +2305,7 @@
       </c>
       <c r="G68" s="19"/>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B69" s="3" t="s">
         <v>85</v>
       </c>
@@ -2293,7 +2328,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>61</v>
       </c>
@@ -2303,7 +2338,7 @@
       <c r="F70" s="9"/>
       <c r="G70" s="19"/>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B71" s="3" t="s">
         <v>84</v>
       </c>
@@ -2326,14 +2361,14 @@
         <v>110</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C72" s="2"/>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
       <c r="G72" s="19"/>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B73" s="3" t="s">
         <v>86</v>
       </c>
@@ -2356,7 +2391,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B74" s="3" t="s">
         <v>87</v>
       </c>
@@ -2379,7 +2414,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B75" s="3" t="s">
         <v>88</v>
       </c>
@@ -2402,7 +2437,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B76" s="3" t="s">
         <v>89</v>
       </c>
@@ -2425,7 +2460,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B77" s="3" t="s">
         <v>90</v>
       </c>
@@ -2448,12 +2483,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="20" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="82" spans="1:1">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>126</v>
       </c>
